--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234b911ddeea70af/Programmering/Examensarbeten/parameter_db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExArbete\parameter_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:40000_{4A861250-3726-48F3-85EB-A76BF2E7A8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA9E01D-71F4-4CF2-8DDD-DF94F5D4DEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -63,15 +63,9 @@
     <t>unit_name</t>
   </si>
   <si>
-    <t>unit_description</t>
-  </si>
-  <si>
     <t>rigfamily_name</t>
   </si>
   <si>
-    <t>rigfamily_description</t>
-  </si>
-  <si>
     <t>image_name</t>
   </si>
   <si>
@@ -79,16 +73,28 @@
   </si>
   <si>
     <t>image_urls</t>
+  </si>
+  <si>
+    <t>possible_values</t>
+  </si>
+  <si>
+    <t>possible_values_description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,8 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,8 +154,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -162,7 +171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609599" y="561976"/>
-          <a:ext cx="5819775" cy="1257299"/>
+          <a:ext cx="5819775" cy="2066924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -257,7 +266,42 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="sv-SE" sz="1100">
+          <a:br>
+            <a:rPr lang="sv-SE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Same goes for rigfamily_name,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> rigfamily_description, possible_values and possible_values_description</a:t>
+          </a:r>
+          <a:endParaRPr lang="sv-SE" sz="1400">
             <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
@@ -282,7 +326,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,26 +621,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -636,7 +678,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -650,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:M16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +705,7 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>